--- a/adapter_board/EasyLink_AdatperBoard_v1/EasyLink_AdapterBoard_v1_BOM.xlsx
+++ b/adapter_board/EasyLink_AdatperBoard_v1/EasyLink_AdapterBoard_v1_BOM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F561B3D4-CCBC-4E96-8D9B-AFB1FC292CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>DigiKey Part Number</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD 14POS 1.27MM</t>
+  </si>
+  <si>
+    <t>20021121-00014T4LF</t>
+  </si>
+  <si>
+    <t>609-3730-ND</t>
+  </si>
+  <si>
+    <t>S9202-ND</t>
+  </si>
+  <si>
+    <t>SFH11-PBPC-D05-RA-BK</t>
+  </si>
+  <si>
+    <t>CONN HDR 10POS 0.1 GOLD PCB R/A</t>
+  </si>
+  <si>
+    <t>Reset button</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +375,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/adapter_board/EasyLink_AdatperBoard_v1/EasyLink_AdapterBoard_v1_BOM.xlsx
+++ b/adapter_board/EasyLink_AdatperBoard_v1/EasyLink_AdapterBoard_v1_BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F561B3D4-CCBC-4E96-8D9B-AFB1FC292CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23923B02-8D87-417E-94C0-701FC8780EA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Designator</t>
   </si>
@@ -58,7 +58,13 @@
     <t>CONN HDR 10POS 0.1 GOLD PCB R/A</t>
   </si>
   <si>
-    <t>Reset button</t>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>TL3365AF180QG</t>
+  </si>
+  <si>
+    <t>EG5384CT-ND</t>
   </si>
 </sst>
 </file>
@@ -379,7 +385,7 @@
   <dimension ref="A3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +450,12 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
